--- a/www/IndicatorsPerCountry/Mongolia_CopperProduction_TerritorialRef_1946_2012_CCode_496.xlsx
+++ b/www/IndicatorsPerCountry/Mongolia_CopperProduction_TerritorialRef_1946_2012_CCode_496.xlsx
@@ -309,13 +309,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Mongolia_CopperProduction_TerritorialRef_1946_2012_CCode_496.xlsx
+++ b/www/IndicatorsPerCountry/Mongolia_CopperProduction_TerritorialRef_1946_2012_CCode_496.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="869" uniqueCount="52">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,247 +39,100 @@
     <t>0</t>
   </si>
   <si>
-    <t>2.1</t>
+    <t>4</t>
   </si>
   <si>
-    <t>2.4</t>
+    <t>12</t>
   </si>
   <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>4.3</t>
-  </si>
-  <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>6.8</t>
-  </si>
-  <si>
-    <t>8.9</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>81</t>
+    <t>15</t>
   </si>
   <si>
     <t>80</t>
   </si>
   <si>
-    <t>17</t>
+    <t>95</t>
   </si>
   <si>
-    <t>22</t>
+    <t>100</t>
   </si>
   <si>
-    <t>26</t>
+    <t>120.3</t>
   </si>
   <si>
-    <t>43</t>
+    <t>120.9</t>
   </si>
   <si>
-    <t>73</t>
+    <t>121.6</t>
   </si>
   <si>
-    <t>82</t>
+    <t>123.4</t>
   </si>
   <si>
-    <t>85</t>
+    <t>123.9</t>
   </si>
   <si>
-    <t>89</t>
+    <t>90.1</t>
   </si>
   <si>
-    <t>96</t>
+    <t>105.1</t>
   </si>
   <si>
-    <t>104</t>
+    <t>96.9</t>
   </si>
   <si>
-    <t>107</t>
+    <t>99.6</t>
   </si>
   <si>
-    <t>106</t>
+    <t>100.4</t>
   </si>
   <si>
-    <t>112</t>
+    <t>101.9</t>
   </si>
   <si>
-    <t>120</t>
+    <t>125.3</t>
   </si>
   <si>
-    <t>121</t>
+    <t>125.4</t>
   </si>
   <si>
-    <t>91</t>
+    <t>126.7</t>
   </si>
   <si>
-    <t>51</t>
+    <t>125.227</t>
   </si>
   <si>
-    <t>15</t>
+    <t>133.053</t>
   </si>
   <si>
-    <t>12</t>
+    <t>131.075</t>
   </si>
   <si>
-    <t>6.043</t>
+    <t>131.6</t>
   </si>
   <si>
-    <t>2.376</t>
+    <t>312</t>
   </si>
   <si>
-    <t>1.145</t>
+    <t>126.547</t>
   </si>
   <si>
-    <t>0.932</t>
+    <t>129.693</t>
   </si>
   <si>
-    <t>1.07</t>
+    <t>130.16</t>
   </si>
   <si>
-    <t>1.038</t>
+    <t>126.8</t>
   </si>
   <si>
-    <t>1.211</t>
+    <t>129.8</t>
   </si>
   <si>
-    <t>0.744</t>
+    <t>124.985</t>
   </si>
   <si>
-    <t>0.75</t>
+    <t>121.59</t>
   </si>
   <si>
     <t>Description</t>
@@ -2862,7 +2715,7 @@
         <v>1874.0</v>
       </c>
       <c r="E147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="148">
@@ -2879,7 +2732,7 @@
         <v>1875.0</v>
       </c>
       <c r="E148" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="149">
@@ -2896,7 +2749,7 @@
         <v>1876.0</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="150">
@@ -2913,7 +2766,7 @@
         <v>1877.0</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="151">
@@ -2930,7 +2783,7 @@
         <v>1878.0</v>
       </c>
       <c r="E151" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="152">
@@ -2947,7 +2800,7 @@
         <v>1879.0</v>
       </c>
       <c r="E152" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="153">
@@ -2964,7 +2817,7 @@
         <v>1880.0</v>
       </c>
       <c r="E153" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="154">
@@ -2981,7 +2834,7 @@
         <v>1881.0</v>
       </c>
       <c r="E154" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="155">
@@ -2998,7 +2851,7 @@
         <v>1882.0</v>
       </c>
       <c r="E155" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="156">
@@ -3015,7 +2868,7 @@
         <v>1883.0</v>
       </c>
       <c r="E156" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="157">
@@ -3032,7 +2885,7 @@
         <v>1884.0</v>
       </c>
       <c r="E157" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="158">
@@ -3049,7 +2902,7 @@
         <v>1885.0</v>
       </c>
       <c r="E158" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="159">
@@ -3066,7 +2919,7 @@
         <v>1886.0</v>
       </c>
       <c r="E159" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="160">
@@ -3083,7 +2936,7 @@
         <v>1887.0</v>
       </c>
       <c r="E160" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161">
@@ -3100,7 +2953,7 @@
         <v>1888.0</v>
       </c>
       <c r="E161" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
@@ -3117,7 +2970,7 @@
         <v>1889.0</v>
       </c>
       <c r="E162" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="163">
@@ -3134,7 +2987,7 @@
         <v>1890.0</v>
       </c>
       <c r="E163" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="164">
@@ -3151,7 +3004,7 @@
         <v>1891.0</v>
       </c>
       <c r="E164" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="165">
@@ -3168,7 +3021,7 @@
         <v>1892.0</v>
       </c>
       <c r="E165" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="166">
@@ -3185,7 +3038,7 @@
         <v>1893.0</v>
       </c>
       <c r="E166" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="167">
@@ -3202,7 +3055,7 @@
         <v>1894.0</v>
       </c>
       <c r="E167" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="168">
@@ -3219,7 +3072,7 @@
         <v>1895.0</v>
       </c>
       <c r="E168" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="169">
@@ -3236,7 +3089,7 @@
         <v>1896.0</v>
       </c>
       <c r="E169" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="170">
@@ -3253,7 +3106,7 @@
         <v>1897.0</v>
       </c>
       <c r="E170" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="171">
@@ -3270,7 +3123,7 @@
         <v>1898.0</v>
       </c>
       <c r="E171" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="172">
@@ -3287,7 +3140,7 @@
         <v>1899.0</v>
       </c>
       <c r="E172" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="173">
@@ -3304,7 +3157,7 @@
         <v>1900.0</v>
       </c>
       <c r="E173" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="174">
@@ -3321,7 +3174,7 @@
         <v>1901.0</v>
       </c>
       <c r="E174" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="175">
@@ -3338,7 +3191,7 @@
         <v>1902.0</v>
       </c>
       <c r="E175" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="176">
@@ -3355,7 +3208,7 @@
         <v>1903.0</v>
       </c>
       <c r="E176" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="177">
@@ -3372,7 +3225,7 @@
         <v>1904.0</v>
       </c>
       <c r="E177" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="178">
@@ -3389,7 +3242,7 @@
         <v>1905.0</v>
       </c>
       <c r="E178" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="179">
@@ -3406,7 +3259,7 @@
         <v>1906.0</v>
       </c>
       <c r="E179" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="180">
@@ -3423,7 +3276,7 @@
         <v>1907.0</v>
       </c>
       <c r="E180" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="181">
@@ -3440,7 +3293,7 @@
         <v>1908.0</v>
       </c>
       <c r="E181" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="182">
@@ -3457,7 +3310,7 @@
         <v>1909.0</v>
       </c>
       <c r="E182" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="183">
@@ -3474,7 +3327,7 @@
         <v>1910.0</v>
       </c>
       <c r="E183" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="184">
@@ -3491,7 +3344,7 @@
         <v>1911.0</v>
       </c>
       <c r="E184" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="185">
@@ -3508,7 +3361,7 @@
         <v>1912.0</v>
       </c>
       <c r="E185" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="186">
@@ -3525,7 +3378,7 @@
         <v>1913.0</v>
       </c>
       <c r="E186" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="187">
@@ -3542,7 +3395,7 @@
         <v>1914.0</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="188">
@@ -3559,7 +3412,7 @@
         <v>1915.0</v>
       </c>
       <c r="E188" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="189">
@@ -3576,7 +3429,7 @@
         <v>1916.0</v>
       </c>
       <c r="E189" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="190">
@@ -3593,7 +3446,7 @@
         <v>1917.0</v>
       </c>
       <c r="E190" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="191">
@@ -3610,7 +3463,7 @@
         <v>1918.0</v>
       </c>
       <c r="E191" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
@@ -3627,7 +3480,7 @@
         <v>1919.0</v>
       </c>
       <c r="E192" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="193">
@@ -3644,7 +3497,7 @@
         <v>1920.0</v>
       </c>
       <c r="E193" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="194">
@@ -3661,7 +3514,7 @@
         <v>1921.0</v>
       </c>
       <c r="E194" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="195">
@@ -3678,7 +3531,7 @@
         <v>1922.0</v>
       </c>
       <c r="E195" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="196">
@@ -3695,7 +3548,7 @@
         <v>1923.0</v>
       </c>
       <c r="E196" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="197">
@@ -3712,7 +3565,7 @@
         <v>1924.0</v>
       </c>
       <c r="E197" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
     </row>
     <row r="198">
@@ -3729,7 +3582,7 @@
         <v>1925.0</v>
       </c>
       <c r="E198" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="199">
@@ -3746,7 +3599,7 @@
         <v>1926.0</v>
       </c>
       <c r="E199" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="200">
@@ -3763,7 +3616,7 @@
         <v>1927.0</v>
       </c>
       <c r="E200" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -3780,7 +3633,7 @@
         <v>1928.0</v>
       </c>
       <c r="E201" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
@@ -3797,7 +3650,7 @@
         <v>1929.0</v>
       </c>
       <c r="E202" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
@@ -3814,7 +3667,7 @@
         <v>1930.0</v>
       </c>
       <c r="E203" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
@@ -3831,7 +3684,7 @@
         <v>1931.0</v>
       </c>
       <c r="E204" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
@@ -3848,7 +3701,7 @@
         <v>1932.0</v>
       </c>
       <c r="E205" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
@@ -3865,7 +3718,7 @@
         <v>1933.0</v>
       </c>
       <c r="E206" t="s">
-        <v>57</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
@@ -3882,7 +3735,7 @@
         <v>1934.0</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
@@ -3899,7 +3752,7 @@
         <v>1935.0</v>
       </c>
       <c r="E208" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
@@ -3916,7 +3769,7 @@
         <v>1936.0</v>
       </c>
       <c r="E209" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
@@ -3933,7 +3786,7 @@
         <v>1937.0</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
@@ -3950,7 +3803,7 @@
         <v>1938.0</v>
       </c>
       <c r="E211" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
@@ -3967,7 +3820,7 @@
         <v>1939.0</v>
       </c>
       <c r="E212" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
@@ -3984,7 +3837,7 @@
         <v>1940.0</v>
       </c>
       <c r="E213" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
@@ -4001,7 +3854,7 @@
         <v>1941.0</v>
       </c>
       <c r="E214" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
@@ -4018,7 +3871,7 @@
         <v>1942.0</v>
       </c>
       <c r="E215" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
@@ -4035,7 +3888,7 @@
         <v>1943.0</v>
       </c>
       <c r="E216" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
@@ -4052,7 +3905,7 @@
         <v>1944.0</v>
       </c>
       <c r="E217" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -4069,7 +3922,7 @@
         <v>1945.0</v>
       </c>
       <c r="E218" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
@@ -4086,7 +3939,7 @@
         <v>1946.0</v>
       </c>
       <c r="E219" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
@@ -4103,7 +3956,7 @@
         <v>1947.0</v>
       </c>
       <c r="E220" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
@@ -4120,7 +3973,7 @@
         <v>1948.0</v>
       </c>
       <c r="E221" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
@@ -4137,7 +3990,7 @@
         <v>1949.0</v>
       </c>
       <c r="E222" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
@@ -4154,7 +4007,7 @@
         <v>1950.0</v>
       </c>
       <c r="E223" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
@@ -4171,7 +4024,7 @@
         <v>1951.0</v>
       </c>
       <c r="E224" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
@@ -4188,7 +4041,7 @@
         <v>1952.0</v>
       </c>
       <c r="E225" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
@@ -4205,7 +4058,7 @@
         <v>1953.0</v>
       </c>
       <c r="E226" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
@@ -4222,7 +4075,7 @@
         <v>1954.0</v>
       </c>
       <c r="E227" t="s">
-        <v>53</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
@@ -4239,7 +4092,7 @@
         <v>1955.0</v>
       </c>
       <c r="E228" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
@@ -4256,7 +4109,7 @@
         <v>1956.0</v>
       </c>
       <c r="E229" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
@@ -4273,7 +4126,7 @@
         <v>1957.0</v>
       </c>
       <c r="E230" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
@@ -4290,7 +4143,7 @@
         <v>1958.0</v>
       </c>
       <c r="E231" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232">
@@ -4307,7 +4160,7 @@
         <v>1959.0</v>
       </c>
       <c r="E232" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
@@ -4324,7 +4177,7 @@
         <v>1960.0</v>
       </c>
       <c r="E233" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
@@ -4341,7 +4194,7 @@
         <v>1961.0</v>
       </c>
       <c r="E234" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
@@ -4358,7 +4211,7 @@
         <v>1962.0</v>
       </c>
       <c r="E235" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -4375,7 +4228,7 @@
         <v>1963.0</v>
       </c>
       <c r="E236" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -4392,7 +4245,7 @@
         <v>1964.0</v>
       </c>
       <c r="E237" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
@@ -4409,7 +4262,7 @@
         <v>1965.0</v>
       </c>
       <c r="E238" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
@@ -4426,7 +4279,7 @@
         <v>1966.0</v>
       </c>
       <c r="E239" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
@@ -4443,7 +4296,7 @@
         <v>1967.0</v>
       </c>
       <c r="E240" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
@@ -4460,7 +4313,7 @@
         <v>1968.0</v>
       </c>
       <c r="E241" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
@@ -4477,7 +4330,7 @@
         <v>1969.0</v>
       </c>
       <c r="E242" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
@@ -4494,7 +4347,7 @@
         <v>1970.0</v>
       </c>
       <c r="E243" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
@@ -4511,7 +4364,7 @@
         <v>1971.0</v>
       </c>
       <c r="E244" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
@@ -4528,7 +4381,7 @@
         <v>1972.0</v>
       </c>
       <c r="E245" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="246">
@@ -4545,7 +4398,7 @@
         <v>1973.0</v>
       </c>
       <c r="E246" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="247">
@@ -4562,7 +4415,7 @@
         <v>1974.0</v>
       </c>
       <c r="E247" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="248">
@@ -4579,7 +4432,7 @@
         <v>1975.0</v>
       </c>
       <c r="E248" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="249">
@@ -4596,7 +4449,7 @@
         <v>1976.0</v>
       </c>
       <c r="E249" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="250">
@@ -4613,7 +4466,7 @@
         <v>1977.0</v>
       </c>
       <c r="E250" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
     </row>
     <row r="251">
@@ -4630,7 +4483,7 @@
         <v>1978.0</v>
       </c>
       <c r="E251" t="s">
-        <v>56</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252">
@@ -4647,7 +4500,7 @@
         <v>1979.0</v>
       </c>
       <c r="E252" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
     </row>
     <row r="253">
@@ -4664,7 +4517,7 @@
         <v>1980.0</v>
       </c>
       <c r="E253" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
     </row>
     <row r="254">
@@ -4681,7 +4534,7 @@
         <v>1981.0</v>
       </c>
       <c r="E254" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
     </row>
     <row r="255">
@@ -4698,7 +4551,7 @@
         <v>1982.0</v>
       </c>
       <c r="E255" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256">
@@ -4715,7 +4568,7 @@
         <v>1983.0</v>
       </c>
       <c r="E256" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257">
@@ -4732,7 +4585,7 @@
         <v>1984.0</v>
       </c>
       <c r="E257" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="258">
@@ -4749,7 +4602,7 @@
         <v>1985.0</v>
       </c>
       <c r="E258" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="259">
@@ -4766,7 +4619,7 @@
         <v>1986.0</v>
       </c>
       <c r="E259" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="260">
@@ -4783,7 +4636,7 @@
         <v>1987.0</v>
       </c>
       <c r="E260" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="261">
@@ -4800,7 +4653,7 @@
         <v>1988.0</v>
       </c>
       <c r="E261" t="s">
-        <v>61</v>
+        <v>16</v>
       </c>
     </row>
     <row r="262">
@@ -4817,7 +4670,7 @@
         <v>1989.0</v>
       </c>
       <c r="E262" t="s">
-        <v>78</v>
+        <v>17</v>
       </c>
     </row>
     <row r="263">
@@ -4834,7 +4687,7 @@
         <v>1990.0</v>
       </c>
       <c r="E263" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="264">
@@ -4851,7 +4704,7 @@
         <v>1991.0</v>
       </c>
       <c r="E264" t="s">
-        <v>78</v>
+        <v>19</v>
       </c>
     </row>
     <row r="265">
@@ -4868,7 +4721,7 @@
         <v>1992.0</v>
       </c>
       <c r="E265" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="266">
@@ -4885,7 +4738,7 @@
         <v>1993.0</v>
       </c>
       <c r="E266" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="267">
@@ -4902,7 +4755,7 @@
         <v>1994.0</v>
       </c>
       <c r="E267" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
     </row>
     <row r="268">
@@ -4919,7 +4772,7 @@
         <v>1995.0</v>
       </c>
       <c r="E268" t="s">
-        <v>81</v>
+        <v>23</v>
       </c>
     </row>
     <row r="269">
@@ -4936,7 +4789,7 @@
         <v>1996.0</v>
       </c>
       <c r="E269" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
     </row>
     <row r="270">
@@ -4953,7 +4806,7 @@
         <v>1997.0</v>
       </c>
       <c r="E270" t="s">
-        <v>83</v>
+        <v>25</v>
       </c>
     </row>
     <row r="271">
@@ -4970,7 +4823,7 @@
         <v>1998.0</v>
       </c>
       <c r="E271" t="s">
-        <v>84</v>
+        <v>26</v>
       </c>
     </row>
     <row r="272">
@@ -4987,7 +4840,7 @@
         <v>1999.0</v>
       </c>
       <c r="E272" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
     </row>
     <row r="273">
@@ -5004,7 +4857,7 @@
         <v>2000.0</v>
       </c>
       <c r="E273" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="274">
@@ -5021,7 +4874,7 @@
         <v>2001.0</v>
       </c>
       <c r="E274" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
     </row>
     <row r="275">
@@ -5038,7 +4891,7 @@
         <v>2002.0</v>
       </c>
       <c r="E275" t="s">
-        <v>88</v>
+        <v>30</v>
       </c>
     </row>
     <row r="276">
@@ -5055,7 +4908,7 @@
         <v>2003.0</v>
       </c>
       <c r="E276" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="277">
@@ -5072,7 +4925,7 @@
         <v>2004.0</v>
       </c>
       <c r="E277" t="s">
-        <v>7</v>
+        <v>32</v>
       </c>
     </row>
     <row r="278">
@@ -5089,7 +4942,7 @@
         <v>2005.0</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="279">
@@ -5106,7 +4959,7 @@
         <v>2006.0</v>
       </c>
       <c r="E279" t="s">
-        <v>7</v>
+        <v>34</v>
       </c>
     </row>
     <row r="280">
@@ -5123,7 +4976,7 @@
         <v>2007.0</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>35</v>
       </c>
     </row>
     <row r="281">
@@ -5140,7 +4993,7 @@
         <v>2008.0</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="282">
@@ -5157,7 +5010,7 @@
         <v>2009.0</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
     <row r="283">
@@ -5174,7 +5027,7 @@
         <v>2010.0</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="284">
@@ -5191,7 +5044,7 @@
         <v>2011.0</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
     </row>
     <row r="285">
@@ -5208,7 +5061,7 @@
         <v>2012.0</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -5226,50 +5079,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>90</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>93</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="B6" t="s">
-        <v>100</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
